--- a/language-benchmarking.xlsx
+++ b/language-benchmarking.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\jobs\language-benchmarking\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49D0704F-6F8D-4778-83E3-95F200920681}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68B87D01-F990-48B8-9BC6-FD2A7DC13783}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2940" yWindow="4260" windowWidth="32914" windowHeight="13243" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3231" yWindow="2426" windowWidth="32915" windowHeight="13243" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="데이터" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t>gcc</t>
   </si>
@@ -299,9 +299,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>데이터!$B$2:$B$22</c:f>
+              <c:f>데이터!$B$2:$B$23</c:f>
               <c:strCache>
-                <c:ptCount val="21"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>gcc</c:v>
                 </c:pt>
@@ -363,6 +363,9 @@
                   <c:v>sql - sqlite</c:v>
                 </c:pt>
                 <c:pt idx="20">
+                  <c:v>swift</c:v>
+                </c:pt>
+                <c:pt idx="21">
                   <c:v>swift</c:v>
                 </c:pt>
               </c:strCache>
@@ -370,10 +373,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>데이터!$C$2:$C$22</c:f>
+              <c:f>데이터!$C$2:$C$23</c:f>
               <c:numCache>
                 <c:formatCode>0.000000;\-0.000000;0.000000</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -435,6 +438,9 @@
                   <c:v>21.228999999999999</c:v>
                 </c:pt>
                 <c:pt idx="20">
+                  <c:v>30.165959999999998</c:v>
+                </c:pt>
+                <c:pt idx="21">
                   <c:v>30.165959999999998</c:v>
                 </c:pt>
               </c:numCache>
@@ -1204,7 +1210,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9E72129A-C25B-49F0-A837-203ACA1D90B4}" name="표1" displayName="표1" ref="B1:C22" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9E72129A-C25B-49F0-A837-203ACA1D90B4}" name="표1" displayName="표1" ref="B1:C23" totalsRowShown="0">
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{7B3912C7-9350-4952-A2E9-D650A8ACF9FC}" name="언어" dataDxfId="1"/>
     <tableColumn id="2" xr3:uid="{02D236E4-0CAD-41C0-A234-CB6778C9DFBF}" name="시간" dataDxfId="0"/>
@@ -1510,10 +1516,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:C22"/>
+  <dimension ref="B1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.600000000000001" customHeight="1"/>
@@ -1698,6 +1704,14 @@
         <v>30.165959999999998</v>
       </c>
     </row>
+    <row r="23" spans="2:3" ht="17.600000000000001" customHeight="1">
+      <c r="B23" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" s="2">
+        <v>30.165959999999998</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/language-benchmarking.xlsx
+++ b/language-benchmarking.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\jobs\language-benchmarking\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68B87D01-F990-48B8-9BC6-FD2A7DC13783}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C72BE59B-2C2F-4AC4-8848-46318CFB0CEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3231" yWindow="2426" windowWidth="32915" windowHeight="13243" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17974" yWindow="5323" windowWidth="12635" windowHeight="9206" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="데이터" sheetId="1" r:id="rId1"/>
@@ -299,7 +299,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>데이터!$B$2:$B$23</c:f>
+              <c:f>데이터!$B$2:$B$31</c:f>
               <c:strCache>
                 <c:ptCount val="22"/>
                 <c:pt idx="0">
@@ -373,10 +373,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>데이터!$C$2:$C$23</c:f>
+              <c:f>데이터!$C$2:$C$31</c:f>
               <c:numCache>
                 <c:formatCode>0.000000;\-0.000000;0.000000</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1210,7 +1210,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9E72129A-C25B-49F0-A837-203ACA1D90B4}" name="표1" displayName="표1" ref="B1:C23" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9E72129A-C25B-49F0-A837-203ACA1D90B4}" name="표1" displayName="표1" ref="B1:C31" totalsRowShown="0">
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{7B3912C7-9350-4952-A2E9-D650A8ACF9FC}" name="언어" dataDxfId="1"/>
     <tableColumn id="2" xr3:uid="{02D236E4-0CAD-41C0-A234-CB6778C9DFBF}" name="시간" dataDxfId="0"/>
@@ -1516,10 +1516,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:C23"/>
+  <dimension ref="B1:C31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.600000000000001" customHeight="1"/>
@@ -1712,6 +1712,38 @@
         <v>30.165959999999998</v>
       </c>
     </row>
+    <row r="24" spans="2:3" ht="17.600000000000001" customHeight="1">
+      <c r="B24" s="1"/>
+      <c r="C24" s="2"/>
+    </row>
+    <row r="25" spans="2:3" ht="17.600000000000001" customHeight="1">
+      <c r="B25" s="1"/>
+      <c r="C25" s="2"/>
+    </row>
+    <row r="26" spans="2:3" ht="17.600000000000001" customHeight="1">
+      <c r="B26" s="1"/>
+      <c r="C26" s="2"/>
+    </row>
+    <row r="27" spans="2:3" ht="17.600000000000001" customHeight="1">
+      <c r="B27" s="1"/>
+      <c r="C27" s="2"/>
+    </row>
+    <row r="28" spans="2:3" ht="17.600000000000001" customHeight="1">
+      <c r="B28" s="1"/>
+      <c r="C28" s="2"/>
+    </row>
+    <row r="29" spans="2:3" ht="17.600000000000001" customHeight="1">
+      <c r="B29" s="1"/>
+      <c r="C29" s="2"/>
+    </row>
+    <row r="30" spans="2:3" ht="17.600000000000001" customHeight="1">
+      <c r="B30" s="1"/>
+      <c r="C30" s="2"/>
+    </row>
+    <row r="31" spans="2:3" ht="17.600000000000001" customHeight="1">
+      <c r="B31" s="1"/>
+      <c r="C31" s="2"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
